--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA48A5-001C-476A-AAC0-F49D72BE8465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D3964-9709-42C5-88B4-2EC2F73B4172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="301">
   <si>
     <t>Datum</t>
   </si>
@@ -954,6 +954,15 @@
   </si>
   <si>
     <t xml:space="preserve">snimao jan po novom templejtu </t>
+  </si>
+  <si>
+    <t>Sub u 1</t>
+  </si>
+  <si>
+    <t>odradili gradove mutlithr</t>
+  </si>
+  <si>
+    <t>top objasniti drugi nacin i combo box iduci put</t>
   </si>
 </sst>
 </file>
@@ -8713,8 +8722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8783,7 +8792,9 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="67">
+        <v>9.0277777777777776E-2</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -8803,7 +8814,9 @@
       <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="67">
+        <v>0.13194444444444445</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -8823,7 +8836,9 @@
       <c r="E5" s="39">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="66">
+        <v>4</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -8843,7 +8858,9 @@
       <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="19">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -8863,17 +8880,31 @@
       <c r="E7" s="37">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="67">
+        <v>0.2638888888888889</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="31">
+        <v>45682</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="67">
+        <v>0.30555555555555558</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -11427,7 +11458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D3964-9709-42C5-88B4-2EC2F73B4172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE038ED-3B14-442D-B2E0-091480823515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
     <sheet name="Izudin i co" sheetId="46" r:id="rId2"/>
     <sheet name="Emir" sheetId="45" r:id="rId3"/>
-    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId4"/>
-    <sheet name="Emina Salihovic" sheetId="36" r:id="rId5"/>
+    <sheet name="Emina Salihovic" sheetId="36" r:id="rId4"/>
+    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId5"/>
     <sheet name="Asja" sheetId="47" r:id="rId6"/>
     <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId7"/>
     <sheet name="Amar" sheetId="42" r:id="rId8"/>
@@ -8722,7 +8722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -11120,341 +11120,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45608</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45626</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45647</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45654</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="39">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F5" s="69">
-        <v>0.2013888888888889</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45661</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="68">
-        <v>0.24305555555555555</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45669</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45675</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F8" s="46">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -11705,6 +11370,344 @@
       <c r="F11" s="67">
         <v>0.34722222222222221</v>
       </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45608</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45626</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45647</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45654</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45661</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45669</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45675</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F8" s="43">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE038ED-3B14-442D-B2E0-091480823515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0BFAD6-6FA4-48E0-9462-E9298748B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="303">
   <si>
     <t>Datum</t>
   </si>
@@ -963,6 +963,12 @@
   </si>
   <si>
     <t>top objasniti drugi nacin i combo box iduci put</t>
+  </si>
+  <si>
+    <t>Pon u 3:30</t>
+  </si>
+  <si>
+    <t>odradili prostorije reporting</t>
   </si>
 </sst>
 </file>
@@ -8722,8 +8728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8909,12 +8915,24 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="35">
+        <v>45684</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="47">
+        <v>1</v>
+      </c>
+      <c r="F9" s="69">
+        <v>0.34722222222222221</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -11495,7 +11513,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0BFAD6-6FA4-48E0-9462-E9298748B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED12E9-4A4A-4F75-B5BD-B394ED1B794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,9 +1362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A0D567-2ACF-42FA-A572-FFF19DC51FA0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1805,32 +1802,32 @@
       <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="70"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="72"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1840,27 +1837,27 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="70"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="70"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2976,7 +2973,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3094,7 +3091,7 @@
         <v>0.25694444444444442</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>223</v>
       </c>
       <c r="I5">
@@ -3121,7 +3118,7 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>238</v>
       </c>
       <c r="I6">
@@ -3193,7 +3190,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>45596</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -3208,7 +3205,7 @@
       <c r="E11" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="1" t="s">
         <v>244</v>
       </c>
@@ -3687,7 +3684,7 @@
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="F2" s="34"/>
-      <c r="G2" s="60">
+      <c r="G2" s="59">
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="H2" s="1"/>
@@ -3735,7 +3732,7 @@
       <c r="F4" s="41">
         <v>0.15972222222222221</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="59">
         <v>0.15972222222222221</v>
       </c>
       <c r="H4" s="1"/>
@@ -3753,13 +3750,13 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
       <c r="F5" s="42">
         <v>0.2013888888888889</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="59">
         <v>0.2013888888888889</v>
       </c>
       <c r="H5" s="1"/>
@@ -3783,7 +3780,7 @@
       <c r="F6" s="40">
         <v>0.25694444444444442</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="59">
         <v>0.25694444444444442</v>
       </c>
       <c r="H6" s="1"/>
@@ -3811,7 +3808,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -4084,7 +4081,7 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
       <c r="F5" s="42">
@@ -4138,7 +4135,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -5046,7 +5043,7 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>2</v>
       </c>
       <c r="F5" s="42">
@@ -5328,7 +5325,7 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="66">
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G3" s="1"/>
@@ -5350,7 +5347,7 @@
       <c r="E4" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="66">
         <v>0.1388888888888889</v>
       </c>
       <c r="G4" s="1"/>
@@ -5369,10 +5366,10 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="68">
         <v>0.1736111111111111</v>
       </c>
       <c r="G5" s="1"/>
@@ -5394,7 +5391,7 @@
       <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <v>0.21527777777777779</v>
       </c>
       <c r="G6" s="1"/>
@@ -5416,7 +5413,7 @@
       <c r="E7" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="66">
         <v>0.2638888888888889</v>
       </c>
       <c r="G7" s="1"/>
@@ -5438,7 +5435,7 @@
       <c r="E8" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="66">
         <v>0.3125</v>
       </c>
       <c r="G8" s="1"/>
@@ -5460,19 +5457,19 @@
       <c r="E9" s="39">
         <v>6.25E-2</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>9</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -5823,7 +5820,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>45343</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -7115,7 +7112,7 @@
       <c r="D9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>1</v>
       </c>
       <c r="F9" s="44"/>
@@ -7143,7 +7140,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>45330</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -7223,7 +7220,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>45463</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -7695,12 +7692,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -7961,8 +7958,8 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="15"/>
@@ -8264,7 +8261,7 @@
       <c r="A5" s="35">
         <v>45475</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -8273,7 +8270,7 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
       <c r="F5" s="42">
@@ -8519,18 +8516,18 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="15"/>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="15"/>
@@ -8728,7 +8725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -8798,7 +8795,7 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="66">
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G3" s="1"/>
@@ -8820,7 +8817,7 @@
       <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="66">
         <v>0.13194444444444445</v>
       </c>
       <c r="G4" s="1"/>
@@ -8842,7 +8839,7 @@
       <c r="E5" s="39">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="65">
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
@@ -8886,7 +8883,7 @@
       <c r="E7" s="37">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="66">
         <v>0.2638888888888889</v>
       </c>
       <c r="G7" s="1"/>
@@ -8908,7 +8905,7 @@
       <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="66">
         <v>0.30555555555555558</v>
       </c>
       <c r="G8" s="1"/>
@@ -8927,22 +8924,22 @@
       <c r="D9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>1</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="68">
         <v>0.34722222222222221</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -9775,7 +9772,7 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>2</v>
       </c>
       <c r="F5" s="44"/>
@@ -11252,10 +11249,10 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -11275,7 +11272,7 @@
       <c r="E6" s="38">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <v>6.25E-2</v>
       </c>
       <c r="G6" s="1"/>
@@ -11297,7 +11294,7 @@
       <c r="E7" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="66">
         <v>0.1111111111111111</v>
       </c>
       <c r="G7" s="1"/>
@@ -11319,7 +11316,7 @@
       <c r="E8" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="66">
         <v>0.15972222222222221</v>
       </c>
       <c r="G8" s="1"/>
@@ -11341,7 +11338,7 @@
       <c r="E9" s="39">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>5</v>
       </c>
       <c r="G9" s="1"/>
@@ -11363,14 +11360,14 @@
       <c r="E10" s="38">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="67">
         <v>0.2638888888888889</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>45682</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -11385,7 +11382,7 @@
       <c r="E11" s="17">
         <v>2</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <v>0.34722222222222221</v>
       </c>
       <c r="G11" s="1"/>
@@ -11700,22 +11697,22 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -12418,12 +12415,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -12670,7 +12667,7 @@
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
       <c r="F5" s="44">
@@ -12768,12 +12765,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,34 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED12E9-4A4A-4F75-B5BD-B394ED1B794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EE7ED-4DA4-4AA9-9824-F04C102D79F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
     <sheet name="Izudin i co" sheetId="46" r:id="rId2"/>
     <sheet name="Emir" sheetId="45" r:id="rId3"/>
     <sheet name="Emina Salihovic" sheetId="36" r:id="rId4"/>
-    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId5"/>
-    <sheet name="Asja" sheetId="47" r:id="rId6"/>
-    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId7"/>
-    <sheet name="Amar" sheetId="42" r:id="rId8"/>
-    <sheet name="Imad Mahovic" sheetId="18" r:id="rId9"/>
-    <sheet name="Amna Spahalic" sheetId="26" r:id="rId10"/>
-    <sheet name="Kerim" sheetId="34" r:id="rId11"/>
-    <sheet name="Amina Mukanovic" sheetId="17" r:id="rId12"/>
-    <sheet name="Aida Ajdin i Hana" sheetId="33" r:id="rId13"/>
-    <sheet name="Ahmo" sheetId="39" r:id="rId14"/>
-    <sheet name="Muharem Ravnjak" sheetId="40" r:id="rId15"/>
-    <sheet name="Unejsa Haskic" sheetId="41" r:id="rId16"/>
-    <sheet name="Benjamin Gogalić" sheetId="37" r:id="rId17"/>
-    <sheet name="Lamija" sheetId="31" r:id="rId18"/>
-    <sheet name="Haris Vrcić" sheetId="32" r:id="rId19"/>
-    <sheet name="Ajdin Alic" sheetId="19" r:id="rId20"/>
-    <sheet name="Izel Repuh" sheetId="38" r:id="rId21"/>
-    <sheet name="Selma Omerika" sheetId="35" r:id="rId22"/>
-    <sheet name="Selim" sheetId="30" r:id="rId23"/>
+    <sheet name="Selim" sheetId="30" r:id="rId5"/>
+    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId6"/>
+    <sheet name="Asja" sheetId="47" r:id="rId7"/>
+    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId8"/>
+    <sheet name="Amar" sheetId="42" r:id="rId9"/>
+    <sheet name="Imad Mahovic" sheetId="18" r:id="rId10"/>
+    <sheet name="Amna Spahalic" sheetId="26" r:id="rId11"/>
+    <sheet name="Kerim" sheetId="34" r:id="rId12"/>
+    <sheet name="Amina Mukanovic" sheetId="17" r:id="rId13"/>
+    <sheet name="Aida Ajdin i Hana" sheetId="33" r:id="rId14"/>
+    <sheet name="Ahmo" sheetId="39" r:id="rId15"/>
+    <sheet name="Muharem Ravnjak" sheetId="40" r:id="rId16"/>
+    <sheet name="Unejsa Haskic" sheetId="41" r:id="rId17"/>
+    <sheet name="Benjamin Gogalić" sheetId="37" r:id="rId18"/>
+    <sheet name="Lamija" sheetId="31" r:id="rId19"/>
+    <sheet name="Haris Vrcić" sheetId="32" r:id="rId20"/>
+    <sheet name="Ajdin Alic" sheetId="19" r:id="rId21"/>
+    <sheet name="Izel Repuh" sheetId="38" r:id="rId22"/>
+    <sheet name="Selma Omerika" sheetId="35" r:id="rId23"/>
     <sheet name="Ajla Fraško" sheetId="13" r:id="rId24"/>
     <sheet name="Edo" sheetId="25" r:id="rId25"/>
     <sheet name="Ivana" sheetId="29" r:id="rId26"/>
@@ -1732,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A0D567-2ACF-42FA-A572-FFF19DC51FA0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2002,6 +2002,322 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E59E6D-9B46-47AF-89FC-7D0CFC82CC78}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45243</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45250</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45257</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45265</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="39">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45271</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45281</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C6CD99-0EF6-41BD-AB47-EA86190021AD}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2277,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA3C194-EEE2-470D-836E-AB508094F8B3}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2627,7 +2943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73362BE8-AD62-4B7C-AE5A-D9FD2A813C81}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2965,7 +3281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B2AF-BD94-4638-B889-337F4330636E}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -3326,7 +3642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1531D4-206E-446B-AF4B-D32EDA93C5F5}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -3626,7 +3942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BDFF87-BFC6-4754-BD91-F021292EF3ED}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -3963,7 +4279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D685E43-AB95-4C33-AD06-A319F4AFA55B}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4289,7 +4605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D181A2-8B4E-4BE5-89F6-6B64401C9BBA}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4587,7 +4903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8616155A-328F-4B2A-B014-976C78025EB8}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4777,332 +5093,6 @@
       <c r="F8" s="41">
         <v>0.3125</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC95D96-A461-4F6B-9B0C-720628B8658C}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45497</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45490</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F3" s="41">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45502</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45505</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="46">
-        <v>2</v>
-      </c>
-      <c r="F5" s="42">
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45523</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="38">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0.3125</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45522</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -5599,6 +5589,332 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC95D96-A461-4F6B-9B0C-720628B8658C}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45497</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45490</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45502</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45505</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="46">
+        <v>2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45523</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.3125</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45522</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7B82E-5A88-4222-BB12-55A36A102F5C}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -5964,7 +6280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078972A-0EF7-4C60-90F7-1DC9FF3FED10}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -6254,7 +6570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F45A2-4070-40C4-B75A-BC36B155E069}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -6444,332 +6760,6 @@
       <c r="F8" s="41">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81608CAE-E60C-483B-9324-6D1F9FD00EEA}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45495</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="17">
-        <v>2</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45497</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45504</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45508</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="39">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45511</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45513</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45524</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F8" s="41"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -11504,6 +11494,332 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81608CAE-E60C-483B-9324-6D1F9FD00EEA}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="17">
+        <v>2</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45497</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45504</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45508</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45511</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45513</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45524</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -11841,7 +12157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -12203,7 +12519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -12549,7 +12865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42191813-7BCE-47A2-B257-F672826CB526}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -12897,320 +13213,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E59E6D-9B46-47AF-89FC-7D0CFC82CC78}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45243</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45250</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45257</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45265</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="39">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45271</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45281</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EE7ED-4DA4-4AA9-9824-F04C102D79F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A96383-2A91-497F-82C0-1163B27168BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Emir" sheetId="45" r:id="rId3"/>
     <sheet name="Emina Salihovic" sheetId="36" r:id="rId4"/>
     <sheet name="Selim" sheetId="30" r:id="rId5"/>
-    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId6"/>
-    <sheet name="Asja" sheetId="47" r:id="rId7"/>
-    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId8"/>
+    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId6"/>
+    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId7"/>
+    <sheet name="Asja" sheetId="47" r:id="rId8"/>
     <sheet name="Amar" sheetId="42" r:id="rId9"/>
     <sheet name="Imad Mahovic" sheetId="18" r:id="rId10"/>
     <sheet name="Amna Spahalic" sheetId="26" r:id="rId11"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="308">
   <si>
     <t>Datum</t>
   </si>
@@ -969,6 +969,21 @@
   </si>
   <si>
     <t>odradili prostorije reporting</t>
+  </si>
+  <si>
+    <t>Uto u 17:20</t>
+  </si>
+  <si>
+    <t>odradili jan 25 do multi i reporta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odradili jan25 pretragu </t>
+  </si>
+  <si>
+    <t>top bez ?? i aktivan</t>
+  </si>
+  <si>
+    <t>odradili jan25 do kraja</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1748,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,12 +1822,22 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="69"/>
+      <c r="A4" s="31">
+        <v>45693</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -11495,13 +11520,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81608CAE-E60C-483B-9324-6D1F9FD00EEA}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11675,12 +11697,22 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="35">
+        <v>45692</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="46">
+        <v>2</v>
+      </c>
+      <c r="F9" s="65"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -11820,6 +11852,359 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45621</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45629</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45634</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45648</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45656</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45661</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="43">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45671</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>45676</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45694</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -12157,7 +12542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -12391,352 +12776,6 @@
       <c r="F10" s="34">
         <v>9</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45621</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45629</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="41">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45634</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45648</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="39">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F5" s="44">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45656</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="38">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45661</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F7" s="43">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45671</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
-        <v>45676</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="39">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A96383-2A91-497F-82C0-1163B27168BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7F40B-3CA3-407C-BD4B-3819A07917C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="309">
   <si>
     <t>Datum</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>odradili jan25 do kraja</t>
+  </si>
+  <si>
+    <t>odradili jan pretraga i edit</t>
   </si>
 </sst>
 </file>
@@ -11153,8 +11156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11404,12 +11407,24 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="31">
+        <v>45698</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.40277777777777779</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -11855,7 +11870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7F40B-3CA3-407C-BD4B-3819A07917C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0A970E-FAE6-4697-A63C-CAE43F8D2D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
     <sheet name="Izudin i co" sheetId="46" r:id="rId2"/>
-    <sheet name="Emir" sheetId="45" r:id="rId3"/>
-    <sheet name="Emina Salihovic" sheetId="36" r:id="rId4"/>
-    <sheet name="Selim" sheetId="30" r:id="rId5"/>
-    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId6"/>
+    <sheet name="Emina Salihovic" sheetId="36" r:id="rId3"/>
+    <sheet name="Selim" sheetId="30" r:id="rId4"/>
+    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId5"/>
+    <sheet name="Emir" sheetId="45" r:id="rId6"/>
     <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId7"/>
     <sheet name="Asja" sheetId="47" r:id="rId8"/>
     <sheet name="Amar" sheetId="42" r:id="rId9"/>
@@ -8740,11 +8740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8779,33 +8779,33 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45627</v>
+        <v>45516</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
+      <c r="E2" s="37">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F2" s="34"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45634</v>
+        <v>45518</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -8813,171 +8813,205 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="66">
-        <v>9.0277777777777776E-2</v>
+      <c r="F3" s="41">
+        <v>0.11805555555555555</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>45644</v>
+        <v>45521</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="66">
-        <v>0.13194444444444445</v>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="43">
+        <v>4</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
-        <v>45663</v>
+        <v>45592</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="39">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F5" s="65">
-        <v>4</v>
-      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="65"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>45673</v>
+        <v>45648</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19">
-        <v>5</v>
+      <c r="E6" s="38">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F6" s="67">
+        <v>6.25E-2</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
-        <v>45678</v>
+        <v>45655</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="37">
-        <v>5.5555555555555552E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="F7" s="66">
-        <v>0.2638888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
-        <v>45682</v>
+        <v>45660</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="F8" s="66">
-        <v>0.30555555555555558</v>
+        <v>0.15972222222222221</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
-        <v>45684</v>
+        <v>45663</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="46">
-        <v>1</v>
-      </c>
-      <c r="F9" s="68">
-        <v>0.34722222222222221</v>
+      <c r="E9" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F9" s="65">
+        <v>5</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
+      <c r="A10" s="5">
+        <v>45668</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F10" s="67">
+        <v>0.2638888888888889</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="47">
+        <v>45682</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="66">
+        <v>0.34722222222222221</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="31">
+        <v>45698</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.40277777777777779</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -11153,391 +11187,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81608CAE-E60C-483B-9324-6D1F9FD00EEA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45516</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="37">
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45518</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="41">
-        <v>0.11805555555555555</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45521</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="43">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45592</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="46">
-        <v>1</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45648</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="38">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F6" s="67">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45655</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F7" s="66">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45660</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F8" s="66">
-        <v>0.15972222222222221</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
-        <v>45663</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="39">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F9" s="65">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>45668</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="38">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F10" s="67">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
-        <v>45682</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-      <c r="F11" s="66">
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>45698</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F12" s="66">
-        <v>0.40277777777777779</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81608CAE-E60C-483B-9324-6D1F9FD00EEA}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -11866,12 +11519,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12090,7 +11746,357 @@
       <c r="E10" s="38">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45634</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45644</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45663</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45673</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45678</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45682</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>45684</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="46">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0A970E-FAE6-4697-A63C-CAE43F8D2D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE3F410-550F-4038-9E9E-073F50FA66CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="845" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
     <sheet name="Izudin i co" sheetId="46" r:id="rId2"/>
     <sheet name="Emina Salihovic" sheetId="36" r:id="rId3"/>
-    <sheet name="Selim" sheetId="30" r:id="rId4"/>
+    <sheet name="Selim Mekić" sheetId="30" r:id="rId4"/>
     <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId5"/>
     <sheet name="Emir" sheetId="45" r:id="rId6"/>
     <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId7"/>
@@ -24,14 +24,14 @@
     <sheet name="Amar" sheetId="42" r:id="rId9"/>
     <sheet name="Imad Mahovic" sheetId="18" r:id="rId10"/>
     <sheet name="Amna Spahalic" sheetId="26" r:id="rId11"/>
-    <sheet name="Kerim" sheetId="34" r:id="rId12"/>
+    <sheet name="Kerim Valjevcic" sheetId="34" r:id="rId12"/>
     <sheet name="Amina Mukanovic" sheetId="17" r:id="rId13"/>
     <sheet name="Aida Ajdin i Hana" sheetId="33" r:id="rId14"/>
     <sheet name="Ahmo" sheetId="39" r:id="rId15"/>
     <sheet name="Muharem Ravnjak" sheetId="40" r:id="rId16"/>
     <sheet name="Unejsa Haskic" sheetId="41" r:id="rId17"/>
     <sheet name="Benjamin Gogalić" sheetId="37" r:id="rId18"/>
-    <sheet name="Lamija" sheetId="31" r:id="rId19"/>
+    <sheet name="Lamija Aždahić" sheetId="31" r:id="rId19"/>
     <sheet name="Haris Vrcić" sheetId="32" r:id="rId20"/>
     <sheet name="Ajdin Alic" sheetId="19" r:id="rId21"/>
     <sheet name="Izel Repuh" sheetId="38" r:id="rId22"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="310">
   <si>
     <t>Datum</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>odradili jan pretraga i edit</t>
+  </si>
+  <si>
+    <t>odradili jan 25 do kraja</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2632,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3978,7 +3981,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5623,7 +5626,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
@@ -6606,7 +6609,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8178,7 +8181,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11188,10 +11191,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81608CAE-E60C-483B-9324-6D1F9FD00EEA}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11380,17 +11386,27 @@
       <c r="E9" s="46">
         <v>2</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5">
+        <v>45700</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="38">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F10" s="34"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11527,7 +11543,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE3F410-550F-4038-9E9E-073F50FA66CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E8665-E9D9-48D0-8B5A-DB4A9BE5432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="845" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Kerim Valjevcic" sheetId="34" r:id="rId12"/>
     <sheet name="Amina Mukanovic" sheetId="17" r:id="rId13"/>
     <sheet name="Aida Ajdin i Hana" sheetId="33" r:id="rId14"/>
-    <sheet name="Ahmo" sheetId="39" r:id="rId15"/>
+    <sheet name="Ahmed Stupac" sheetId="39" r:id="rId15"/>
     <sheet name="Muharem Ravnjak" sheetId="40" r:id="rId16"/>
     <sheet name="Unejsa Haskic" sheetId="41" r:id="rId17"/>
     <sheet name="Benjamin Gogalić" sheetId="37" r:id="rId18"/>
@@ -46,7 +46,7 @@
     <sheet name="Amar2" sheetId="22" r:id="rId31"/>
     <sheet name="Amar Kodro i Ammar Puce" sheetId="21" r:id="rId32"/>
     <sheet name="Dusko Savic" sheetId="14" r:id="rId33"/>
-    <sheet name="Ajla Stahljak" sheetId="20" r:id="rId34"/>
+    <sheet name="Ajla Stranjak" sheetId="20" r:id="rId34"/>
     <sheet name="Igor Boskovic" sheetId="12" r:id="rId35"/>
     <sheet name="Merima" sheetId="16" r:id="rId36"/>
   </sheets>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="311">
   <si>
     <t>Datum</t>
   </si>
@@ -794,9 +794,6 @@
     <t xml:space="preserve">objasnjvao iot hci i rs1 </t>
   </si>
   <si>
-    <t>mozda naplatiti</t>
-  </si>
-  <si>
     <t>odradili gradove prikaz</t>
   </si>
   <si>
@@ -953,9 +950,6 @@
     <t>Uto u 5:20</t>
   </si>
   <si>
-    <t xml:space="preserve">snimao jan po novom templejtu </t>
-  </si>
-  <si>
     <t>Sub u 1</t>
   </si>
   <si>
@@ -990,6 +984,15 @@
   </si>
   <si>
     <t>odradili jan 25 do kraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snimao jul po novom templejtu </t>
+  </si>
+  <si>
+    <t>Pet u 7:30</t>
+  </si>
+  <si>
+    <t>odradili jan razmjene</t>
   </si>
 </sst>
 </file>
@@ -1795,10 +1798,10 @@
         <v>141</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="E2" s="37">
         <v>5.5555555555555552E-2</v>
@@ -1815,7 +1818,7 @@
         <v>169</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -1835,10 +1838,10 @@
         <v>110</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -3320,7 +3323,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3553,9 +3556,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -5315,10 +5316,10 @@
         <v>45631</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
@@ -5335,10 +5336,10 @@
         <v>45636</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -5357,10 +5358,10 @@
         <v>45649</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>258</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
@@ -5382,7 +5383,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
@@ -5401,10 +5402,10 @@
         <v>45664</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -5426,7 +5427,7 @@
         <v>173</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>65</v>
@@ -5448,10 +5449,10 @@
         <v>134</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="E8" s="37">
         <v>4.8611111111111112E-2</v>
@@ -5626,7 +5627,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
@@ -8746,8 +8747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8872,7 +8873,7 @@
         <v>184</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -8894,7 +8895,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>65</v>
@@ -8916,7 +8917,7 @@
         <v>169</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>65</v>
@@ -8982,7 +8983,7 @@
         <v>132</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>65</v>
@@ -9004,7 +9005,7 @@
         <v>175</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>65</v>
@@ -9019,12 +9020,24 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="35">
+        <v>45702</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F13" s="68">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -9397,7 +9410,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11375,10 +11388,10 @@
         <v>45692</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>65</v>
@@ -11398,7 +11411,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>65</v>
@@ -11584,7 +11597,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
@@ -11604,7 +11617,7 @@
         <v>206</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -11626,7 +11639,7 @@
         <v>184</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
@@ -11648,7 +11661,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
@@ -11667,10 +11680,10 @@
         <v>45656</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -11692,10 +11705,10 @@
         <v>141</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="37">
         <v>6.25E-2</v>
@@ -11714,10 +11727,10 @@
         <v>130</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>288</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -11751,10 +11764,10 @@
         <v>45694</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>65</v>
@@ -11940,7 +11953,7 @@
         <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
@@ -11960,7 +11973,7 @@
         <v>182</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -11982,7 +11995,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
@@ -12004,7 +12017,7 @@
         <v>236</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
@@ -12023,10 +12036,10 @@
         <v>45673</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -12045,10 +12058,10 @@
         <v>45678</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>65</v>
@@ -12067,13 +12080,13 @@
         <v>45682</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>300</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -12089,10 +12102,10 @@
         <v>45684</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>65</v>
@@ -12290,7 +12303,7 @@
         <v>130</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
@@ -12332,7 +12345,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
@@ -12354,7 +12367,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
@@ -12376,7 +12389,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -12395,7 +12408,7 @@
         <v>45669</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>218</v>
@@ -12628,7 +12641,7 @@
         <v>187</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
@@ -12648,7 +12661,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -12670,10 +12683,10 @@
         <v>169</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="37">
         <v>4.8611111111111112E-2</v>
@@ -12689,13 +12702,13 @@
         <v>45657</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>267</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>268</v>
       </c>
       <c r="E5" s="39">
         <v>2.7777777777777776E-2</v>
@@ -12714,7 +12727,7 @@
         <v>197</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -12736,10 +12749,10 @@
         <v>89</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>280</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>281</v>
       </c>
       <c r="E7" s="37">
         <v>2.7777777777777776E-2</v>
@@ -12758,7 +12771,7 @@
         <v>169</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>65</v>
@@ -12777,13 +12790,13 @@
         <v>45671</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>285</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>286</v>
       </c>
       <c r="E9" s="39">
         <v>5.5555555555555552E-2</v>
@@ -12799,7 +12812,7 @@
         <v>45677</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>196</v>
@@ -12949,7 +12962,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13010,7 +13023,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -13029,7 +13042,7 @@
         <v>45625</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>183</v>
@@ -13076,7 +13089,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -13098,10 +13111,10 @@
         <v>90</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>260</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>261</v>
       </c>
       <c r="E7" s="37">
         <v>6.25E-2</v>
@@ -13117,7 +13130,7 @@
         <v>45652</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>186</v>
